--- a/biology/Microbiologie/Moraxella/Moraxella.xlsx
+++ b/biology/Microbiologie/Moraxella/Moraxella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moraxella, la Moraxelle, est un genre de coccobacilles à Gram négatif proches des Acinetobacter d’un point de vue morphologique. En effet, on parle pour ces deux bactéries de diplococcobacilles (groupés par deux).
 Les espèces du genre Moraxella sont oxydase+ et possèdent une nitratase.
@@ -518,28 +530,135 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aspects bactérioscopiques
-Diplococcobacilles Gram-négatifs, immobiles.
+          <t>Aspects bactérioscopiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Diplococcobacilles Gram-négatifs, immobiles.
 Affinité variable au Gram entraînant une coloration panachée (car décoloration variable).
-Coloration hétérogène à la fuchsine (les Moraxelles possédant des vacuoles de réserves).
-Aspects culturaux
-Culture parfois difficile.
+Coloration hétérogène à la fuchsine (les Moraxelles possédant des vacuoles de réserves).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Moraxella</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moraxella</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aspects culturaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Culture parfois difficile.
 Sérophilie fréquente.
-Isolement sur milieux supplémentés incubés sous 10 % de CO2 : gélose au sang, gélose chocolat, gélose au sang cuit, gélose chocolat polyvitaminée…
-Caractères identifiants
-Aérobie strict (VF+sérum)
+Isolement sur milieux supplémentés incubés sous 10 % de CO2 : gélose au sang, gélose chocolat, gélose au sang cuit, gélose chocolat polyvitaminée…</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Moraxella</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moraxella</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractères identifiants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aérobie strict (VF+sérum)
 Glucose inerte
 NO3 réductase (+)
 Oxydase+ et catalase+
-Galerie API 20NE
-Principales espèces de Moraxella recherchées en bactériologie médicale
-Moraxella lacunata ou bacille de Morax-Axenfeld qui est l'agent de la conjonctivite angulaire
+Galerie API 20NE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Moraxella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moraxella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principales espèces de Moraxella recherchées en bactériologie médicale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Moraxella lacunata ou bacille de Morax-Axenfeld qui est l'agent de la conjonctivite angulaire
 Moraxella bovis
 Moraxella non liquefaciens
 Moraxella atlantae
 Moraxella phenyl-pyruvica
 Moraxella osloensis
-Moraxella catarrhalis, anciennement appelée Branhamella catarrhalis et longtemps rapprochée des Neisseria, d'autres diplocoques Gram négatif[1] (mais contrairement à ces derniers, elle ne produit quasiment jamais de bactériémies ou de méningites).</t>
+Moraxella catarrhalis, anciennement appelée Branhamella catarrhalis et longtemps rapprochée des Neisseria, d'autres diplocoques Gram négatif (mais contrairement à ces derniers, elle ne produit quasiment jamais de bactériémies ou de méningites).</t>
         </is>
       </c>
     </row>
